--- a/data/trans_orig/P68-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P68-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>79331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63987</v>
+        <v>63744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95062</v>
+        <v>95176</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2092346917546104</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1687642443624463</v>
+        <v>0.1681228437301373</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.250724114602625</v>
+        <v>0.2510257371400184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>32241</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23355</v>
+        <v>23017</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42607</v>
+        <v>42501</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2095611115869817</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1518040751726542</v>
+        <v>0.149604987085285</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2769385560194341</v>
+        <v>0.2762477227883823</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>109</v>
@@ -786,19 +786,19 @@
         <v>111573</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91613</v>
+        <v>92088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>128774</v>
+        <v>131326</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2093289133151087</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.171881440920834</v>
+        <v>0.1727720182707354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2416013637573881</v>
+        <v>0.2463889110321981</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>299818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284087</v>
+        <v>283973</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315162</v>
+        <v>315405</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7907653082453896</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7492758853973754</v>
+        <v>0.7489742628599818</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8312357556375537</v>
+        <v>0.8318771562698628</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -836,19 +836,19 @@
         <v>121610</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111244</v>
+        <v>111350</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>130496</v>
+        <v>130834</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7904388884130183</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7230614439805664</v>
+        <v>0.7237522772116177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8481959248273457</v>
+        <v>0.8503950129147152</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>404</v>
@@ -857,19 +857,19 @@
         <v>421428</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>404227</v>
+        <v>401675</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>441388</v>
+        <v>440913</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7906710866848913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7583986362426119</v>
+        <v>0.7536110889678018</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8281185590791661</v>
+        <v>0.8272279817292647</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>145981</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>126771</v>
+        <v>127475</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>170239</v>
+        <v>169750</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.264963943022763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2300975119210342</v>
+        <v>0.2313740373398616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3089942296942828</v>
+        <v>0.3081071502082609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -982,19 +982,19 @@
         <v>52797</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40961</v>
+        <v>40924</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67527</v>
+        <v>68336</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1991156705939674</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.154479575536317</v>
+        <v>0.1543395519479972</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2546711570454155</v>
+        <v>0.2577222719303808</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>186</v>
@@ -1003,19 +1003,19 @@
         <v>198777</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>174468</v>
+        <v>175074</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>223465</v>
+        <v>227434</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2435695371130989</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2137821178051034</v>
+        <v>0.2145248771022727</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2738197216591693</v>
+        <v>0.2786842497525818</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>404965</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>380707</v>
+        <v>381196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>424175</v>
+        <v>423471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.735036056977237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6910057703057172</v>
+        <v>0.6918928497917392</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7699024880789658</v>
+        <v>0.7686259626601385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>197</v>
@@ -1053,19 +1053,19 @@
         <v>212358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>197628</v>
+        <v>196819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>224194</v>
+        <v>224231</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8008843294060326</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7453288429545843</v>
+        <v>0.742277728069619</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.845520424463683</v>
+        <v>0.8456604480520028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>561</v>
@@ -1074,19 +1074,19 @@
         <v>617324</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>592636</v>
+        <v>588667</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>641633</v>
+        <v>641027</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7564304628869011</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7261802783408308</v>
+        <v>0.7213157502474182</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7862178821948966</v>
+        <v>0.7854751228977274</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>109944</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91419</v>
+        <v>91624</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>127951</v>
+        <v>131586</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2709133259602317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.225265830402342</v>
+        <v>0.2257702212160301</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3152856095095415</v>
+        <v>0.3242426946776384</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1199,19 +1199,19 @@
         <v>46533</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34918</v>
+        <v>35900</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59139</v>
+        <v>58900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2183473256468355</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1638490321581891</v>
+        <v>0.1684574454732863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2774996914542797</v>
+        <v>0.2763813999427402</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -1220,19 +1220,19 @@
         <v>156477</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135676</v>
+        <v>132525</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179163</v>
+        <v>179985</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2528138645699999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2192071523552842</v>
+        <v>0.2141166312198095</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2894675676545863</v>
+        <v>0.2907960350957396</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>295883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>277876</v>
+        <v>274241</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314408</v>
+        <v>314203</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7290866740397682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6847143904904585</v>
+        <v>0.6757573053223617</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.774734169597658</v>
+        <v>0.7742297787839698</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>166</v>
@@ -1270,19 +1270,19 @@
         <v>166580</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153974</v>
+        <v>154213</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>178195</v>
+        <v>177213</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7816526743531644</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7225003085457202</v>
+        <v>0.7236186000572598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.836150967841811</v>
+        <v>0.8315425545267138</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>441</v>
@@ -1291,19 +1291,19 @@
         <v>462463</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>439777</v>
+        <v>438955</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>483264</v>
+        <v>486415</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.74718613543</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7105324323454136</v>
+        <v>0.7092039649042603</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7807928476447158</v>
+        <v>0.7858833687801905</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>136228</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115772</v>
+        <v>117218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>155864</v>
+        <v>157215</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2465777364897963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2095524525456111</v>
+        <v>0.2121701222713512</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2821201645481445</v>
+        <v>0.2845647166599909</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -1416,19 +1416,19 @@
         <v>88551</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73479</v>
+        <v>73020</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105828</v>
+        <v>106576</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2295710869707325</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1904972247274848</v>
+        <v>0.1893057321530905</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2743630570724906</v>
+        <v>0.2763014304562728</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>222</v>
@@ -1437,19 +1437,19 @@
         <v>224779</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>198320</v>
+        <v>198990</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>250799</v>
+        <v>251631</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2395857438691974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2113837475007058</v>
+        <v>0.2120982459971509</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2673199106349319</v>
+        <v>0.2682070145121594</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>416246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>396610</v>
+        <v>395259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>436702</v>
+        <v>435256</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7534222635102037</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7178798354518555</v>
+        <v>0.7154352833400091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7904475474543891</v>
+        <v>0.7878298777286488</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>279</v>
@@ -1487,19 +1487,19 @@
         <v>297173</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>279896</v>
+        <v>279148</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>312245</v>
+        <v>312704</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7704289130292674</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7256369429275094</v>
+        <v>0.7236985695437272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8095027752725151</v>
+        <v>0.8106942678469096</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>713</v>
@@ -1508,19 +1508,19 @@
         <v>713419</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>687399</v>
+        <v>686567</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>739878</v>
+        <v>739208</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7604142561308026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7326800893650681</v>
+        <v>0.7317929854878406</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7886162524992941</v>
+        <v>0.7879017540028489</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>471484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>433770</v>
+        <v>434063</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>507872</v>
+        <v>511482</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2496741540369401</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2297025264149159</v>
+        <v>0.2298580422979298</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2689433153474647</v>
+        <v>0.2708550109995698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -1633,19 +1633,19 @@
         <v>220121</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>195005</v>
+        <v>194705</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248755</v>
+        <v>247858</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2162626557167993</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1915862714102577</v>
+        <v>0.1912913492706456</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2443945793325639</v>
+        <v>0.2435125915397502</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>664</v>
@@ -1654,19 +1654,19 @@
         <v>691605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>650691</v>
+        <v>647331</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>738787</v>
+        <v>740730</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2379725512147826</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2238944680687245</v>
+        <v>0.2227381927725881</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2542072825524936</v>
+        <v>0.2548757393765992</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1416913</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1380525</v>
+        <v>1376915</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1454627</v>
+        <v>1454334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7503258459630598</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7310566846525353</v>
+        <v>0.72914498900043</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.770297473585084</v>
+        <v>0.7701419577020702</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>759</v>
@@ -1704,19 +1704,19 @@
         <v>797722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>769088</v>
+        <v>769985</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>822838</v>
+        <v>823138</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7837373442832007</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7556054206674362</v>
+        <v>0.7564874084602501</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8084137285897424</v>
+        <v>0.8087086507293546</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2119</v>
@@ -1725,19 +1725,19 @@
         <v>2214635</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2167453</v>
+        <v>2165510</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2255549</v>
+        <v>2258909</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7620274487852173</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7457927174475063</v>
+        <v>0.7451242606234008</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7761055319312753</v>
+        <v>0.7772618072274119</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>77643</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63900</v>
+        <v>63725</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93637</v>
+        <v>92212</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2887038928598439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2376013213161869</v>
+        <v>0.2369522451669382</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3481750941740172</v>
+        <v>0.3428765916593404</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -2090,19 +2090,19 @@
         <v>35254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25387</v>
+        <v>25258</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46656</v>
+        <v>48360</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2185978749433866</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1574171529885215</v>
+        <v>0.1566158594883114</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2892945951495331</v>
+        <v>0.2998628817975164</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -2111,19 +2111,19 @@
         <v>112898</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95938</v>
+        <v>95439</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135214</v>
+        <v>134038</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2624229993461647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2230027140518932</v>
+        <v>0.221840962443307</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3142967387937725</v>
+        <v>0.3115630241740989</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>191294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>175300</v>
+        <v>176725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>205037</v>
+        <v>205212</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.711296107140156</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6518249058259827</v>
+        <v>0.6571234083406596</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7623986786838131</v>
+        <v>0.763047754833062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>118</v>
@@ -2161,19 +2161,19 @@
         <v>126021</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114619</v>
+        <v>112915</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135888</v>
+        <v>136017</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7814021250566134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7107054048504665</v>
+        <v>0.7001371182024837</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8425828470114781</v>
+        <v>0.8433841405116886</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>300</v>
@@ -2182,19 +2182,19 @@
         <v>317314</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>294998</v>
+        <v>296174</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>334274</v>
+        <v>334773</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7375770006538352</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6857032612062274</v>
+        <v>0.6884369758259011</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7769972859481066</v>
+        <v>0.7781590375566929</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>93909</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76234</v>
+        <v>77039</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110992</v>
+        <v>110461</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2297811250102956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1865329607094232</v>
+        <v>0.1885018001354682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2715783914915509</v>
+        <v>0.2702794788916643</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -2307,19 +2307,19 @@
         <v>63498</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49735</v>
+        <v>49277</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79320</v>
+        <v>78053</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2337967287368731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.18312233237942</v>
+        <v>0.1814347727054097</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2920495995895628</v>
+        <v>0.287386933271005</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>146</v>
@@ -2328,19 +2328,19 @@
         <v>157408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>134532</v>
+        <v>135501</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>180381</v>
+        <v>179769</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2313843066476617</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1977576778380126</v>
+        <v>0.1991815206633987</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2651547234636598</v>
+        <v>0.2642544030002501</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>314782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>297699</v>
+        <v>298230</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>332457</v>
+        <v>331652</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7702188749897044</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7284216085084492</v>
+        <v>0.7297205211083355</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8134670392905768</v>
+        <v>0.8114981998645319</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>188</v>
@@ -2378,19 +2378,19 @@
         <v>208098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>192276</v>
+        <v>193543</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>221861</v>
+        <v>222319</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7662032712631269</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7079504004104373</v>
+        <v>0.712613066728995</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8168776676205801</v>
+        <v>0.8185652272945904</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>476</v>
@@ -2399,19 +2399,19 @@
         <v>522879</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>499906</v>
+        <v>500518</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>545755</v>
+        <v>544786</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7686156933523383</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7348452765363402</v>
+        <v>0.73574559699975</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8022423221619874</v>
+        <v>0.8008184793366013</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>79557</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64983</v>
+        <v>64410</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99180</v>
+        <v>97388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2475552673184804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2022051108432904</v>
+        <v>0.2004213343182514</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3086155242658847</v>
+        <v>0.3030369885289774</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -2524,19 +2524,19 @@
         <v>52979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41224</v>
+        <v>41272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68068</v>
+        <v>67329</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2471694168781004</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1923290746684433</v>
+        <v>0.1925513631591897</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3175690572523713</v>
+        <v>0.3141209820865997</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -2545,19 +2545,19 @@
         <v>132536</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113571</v>
+        <v>111303</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156117</v>
+        <v>153184</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2474008868042598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.211998445578797</v>
+        <v>0.2077666132150378</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2914189435834855</v>
+        <v>0.2859444607604762</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>241815</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>222192</v>
+        <v>223984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>256389</v>
+        <v>256962</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7524447326815196</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6913844757341155</v>
+        <v>0.6969630114710216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7977948891567097</v>
+        <v>0.7995786656817486</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>143</v>
@@ -2595,19 +2595,19 @@
         <v>161363</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146274</v>
+        <v>147013</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>173118</v>
+        <v>173070</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7528305831218995</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6824309427476289</v>
+        <v>0.6858790179134003</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8076709253315568</v>
+        <v>0.8074486368408109</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>362</v>
@@ -2616,19 +2616,19 @@
         <v>403178</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>379597</v>
+        <v>382530</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>422143</v>
+        <v>424411</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7525991131957402</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7085810564165145</v>
+        <v>0.7140555392395239</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.788001554421203</v>
+        <v>0.7922333867849622</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>80342</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65924</v>
+        <v>65899</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96642</v>
+        <v>97796</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.192809802041164</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1582094638892093</v>
+        <v>0.1581506247250252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2319291227157844</v>
+        <v>0.2346973724141028</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -2741,19 +2741,19 @@
         <v>64096</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50238</v>
+        <v>49859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79799</v>
+        <v>79087</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2146098609571385</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1682078876707092</v>
+        <v>0.1669397617864659</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2671860375670944</v>
+        <v>0.2648020247327922</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>139</v>
@@ -2762,19 +2762,19 @@
         <v>144438</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122319</v>
+        <v>124362</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168088</v>
+        <v>166724</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2019114723091618</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1709905805559715</v>
+        <v>0.1738471145290025</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2349726349011878</v>
+        <v>0.2330659501824558</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>336346</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>320046</v>
+        <v>318892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>350764</v>
+        <v>350789</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.807190197958836</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7680708772842157</v>
+        <v>0.7653026275858977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8417905361107909</v>
+        <v>0.8418493752749749</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>226</v>
@@ -2812,19 +2812,19 @@
         <v>234569</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>218866</v>
+        <v>219578</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>248427</v>
+        <v>248806</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7853901390428616</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7328139624329059</v>
+        <v>0.7351979752672078</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8317921123292908</v>
+        <v>0.8330602382135343</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>548</v>
@@ -2833,19 +2833,19 @@
         <v>570915</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>547265</v>
+        <v>548629</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>593034</v>
+        <v>590991</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7980885276908383</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7650273650988121</v>
+        <v>0.766934049817544</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8290094194440284</v>
+        <v>0.8261528854709975</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>331451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>300897</v>
+        <v>300573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>367323</v>
+        <v>364272</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2341275001163483</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2125445471512885</v>
+        <v>0.2123155007848798</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2594660172766163</v>
+        <v>0.2573109262362364</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>198</v>
@@ -2958,19 +2958,19 @@
         <v>215828</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>189898</v>
+        <v>189309</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>243746</v>
+        <v>246770</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2281772746960676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.200763814709158</v>
+        <v>0.2001410953621193</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2576924989807757</v>
+        <v>0.2608902432957688</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>516</v>
@@ -2979,19 +2979,19 @@
         <v>547279</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>505204</v>
+        <v>503884</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>593225</v>
+        <v>592051</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2317442569223014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2139274417809307</v>
+        <v>0.2133683933722913</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2511997227915221</v>
+        <v>0.2507025203519887</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1084237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1048365</v>
+        <v>1051416</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1114791</v>
+        <v>1115115</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7658724998836517</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7405339827233837</v>
+        <v>0.7426890737637634</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7874554528487114</v>
+        <v>0.7876844992151201</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>675</v>
@@ -3029,19 +3029,19 @@
         <v>730050</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>702132</v>
+        <v>699108</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>755980</v>
+        <v>756569</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7718227253039325</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7423075010192244</v>
+        <v>0.7391097567042312</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7992361852908421</v>
+        <v>0.7998589046378808</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1686</v>
@@ -3050,19 +3050,19 @@
         <v>1814287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1768341</v>
+        <v>1769515</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1856362</v>
+        <v>1857682</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7682557430776986</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7488002772084777</v>
+        <v>0.7492974796480113</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7860725582190691</v>
+        <v>0.7866316066277087</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>53727</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41693</v>
+        <v>40465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68342</v>
+        <v>67037</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2246823123096062</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1743575334911408</v>
+        <v>0.1692197533452167</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.285800103673887</v>
+        <v>0.280341876285797</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -3415,19 +3415,19 @@
         <v>29915</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20317</v>
+        <v>20737</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40078</v>
+        <v>40833</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1833197639246072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1245001221424938</v>
+        <v>0.1270722490998298</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2455929306365406</v>
+        <v>0.2502204659696634</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -3436,19 +3436,19 @@
         <v>83642</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68424</v>
+        <v>69050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102623</v>
+        <v>102954</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.207904706096136</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1700762915456206</v>
+        <v>0.1716328519909382</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2550829351434452</v>
+        <v>0.2559072445715807</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>185398</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>170783</v>
+        <v>172088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>197432</v>
+        <v>198660</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7753176876903938</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7141998963261128</v>
+        <v>0.7196581237142029</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8256424665088591</v>
+        <v>0.8307802466547831</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -3486,19 +3486,19 @@
         <v>133272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123109</v>
+        <v>122354</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>142870</v>
+        <v>142450</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8166802360753928</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7544070693634595</v>
+        <v>0.7497795340303366</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8754998778575063</v>
+        <v>0.8729277509001698</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>318</v>
@@ -3507,19 +3507,19 @@
         <v>318669</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>299688</v>
+        <v>299357</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>333887</v>
+        <v>333261</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.792095293903864</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7449170648565546</v>
+        <v>0.7440927554284194</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8299237084543793</v>
+        <v>0.8283671480090617</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>96984</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80185</v>
+        <v>81074</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115295</v>
+        <v>116220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2379707580231423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1967503803510393</v>
+        <v>0.1989325677535219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2829022114112199</v>
+        <v>0.2851707022896822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -3632,19 +3632,19 @@
         <v>55552</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42475</v>
+        <v>42903</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70454</v>
+        <v>70081</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.20367144390643</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.155726571992336</v>
+        <v>0.1572973397077375</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2583086191255711</v>
+        <v>0.2569426682531472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -3653,19 +3653,19 @@
         <v>152535</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131890</v>
+        <v>130627</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>174194</v>
+        <v>177818</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2242191338373297</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1938719176420426</v>
+        <v>0.1920148876774692</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.25605598034052</v>
+        <v>0.2613831187312733</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>310561</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>292250</v>
+        <v>291325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>327360</v>
+        <v>326471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7620292419768577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.71709778858878</v>
+        <v>0.7148292977103178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8032496196489606</v>
+        <v>0.801067432246478</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>214</v>
@@ -3703,19 +3703,19 @@
         <v>217199</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>202297</v>
+        <v>202670</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>230276</v>
+        <v>229848</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.79632855609357</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.741691380874429</v>
+        <v>0.7430573317468525</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8442734280076643</v>
+        <v>0.8427026602922625</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>495</v>
@@ -3724,19 +3724,19 @@
         <v>527761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>506102</v>
+        <v>502478</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>548406</v>
+        <v>549669</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7757808661626703</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.74394401965948</v>
+        <v>0.7386168812687266</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8061280823579574</v>
+        <v>0.8079851123225308</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>109935</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94280</v>
+        <v>92630</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128390</v>
+        <v>128633</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3048602641689217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2614479300077194</v>
+        <v>0.2568712526032152</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3560391991334305</v>
+        <v>0.3567133902246771</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -3849,19 +3849,19 @@
         <v>64747</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51615</v>
+        <v>51921</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79872</v>
+        <v>81398</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2410709512098665</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1921750761472754</v>
+        <v>0.1933169550175671</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2973834959092934</v>
+        <v>0.3030675720899489</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -3870,19 +3870,19 @@
         <v>174682</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>153168</v>
+        <v>153003</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200879</v>
+        <v>198169</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2776305096871421</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2434374341112911</v>
+        <v>0.2431748417016039</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3192663116263235</v>
+        <v>0.3149582015134031</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>250672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>232217</v>
+        <v>231974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>266327</v>
+        <v>267977</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6951397358310782</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6439608008665696</v>
+        <v>0.6432866097753233</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7385520699922806</v>
+        <v>0.7431287473967848</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>199</v>
@@ -3920,19 +3920,19 @@
         <v>203835</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>188710</v>
+        <v>187184</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>216967</v>
+        <v>216661</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7589290487901336</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7026165040907065</v>
+        <v>0.6969324279100513</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8078249238527245</v>
+        <v>0.8066830449824329</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>420</v>
@@ -3941,19 +3941,19 @@
         <v>454508</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>428311</v>
+        <v>431021</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>476022</v>
+        <v>476187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7223694903128579</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6807336883736764</v>
+        <v>0.6850417984865969</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7565625658887088</v>
+        <v>0.7568251582983959</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>87476</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70224</v>
+        <v>69844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103722</v>
+        <v>103161</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2203011349108443</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1768537154168369</v>
+        <v>0.1758951408075162</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2612159562721142</v>
+        <v>0.2598012613190848</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -4066,19 +4066,19 @@
         <v>66083</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52746</v>
+        <v>51821</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81975</v>
+        <v>81140</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2050087423428826</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.163633619567525</v>
+        <v>0.1607628778992593</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2543093339029645</v>
+        <v>0.2517190251358503</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>144</v>
@@ -4087,19 +4087,19 @@
         <v>153559</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132275</v>
+        <v>131215</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177252</v>
+        <v>176507</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2134492020264255</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1838642465220884</v>
+        <v>0.1823906331818986</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.246382439058341</v>
+        <v>0.2453463940650769</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>309599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>293353</v>
+        <v>293914</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>326851</v>
+        <v>327231</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7796988650891556</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7387840437278864</v>
+        <v>0.740198738680915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8231462845831633</v>
+        <v>0.8241048591924837</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>243</v>
@@ -4137,19 +4137,19 @@
         <v>256261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>240369</v>
+        <v>241204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>269598</v>
+        <v>270523</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7949912576571174</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7456906660970355</v>
+        <v>0.7482809748641496</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.836366380432475</v>
+        <v>0.8392371221007406</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>549</v>
@@ -4158,19 +4158,19 @@
         <v>565860</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>542167</v>
+        <v>542912</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>587144</v>
+        <v>588204</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7865507979735745</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7536175609416589</v>
+        <v>0.754653605934923</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8161357534779115</v>
+        <v>0.8176093668181015</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>348122</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>315609</v>
+        <v>316875</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>380673</v>
+        <v>381860</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2478878577598876</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2247366512940046</v>
+        <v>0.2256379653639032</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2710664871548627</v>
+        <v>0.2719117447321361</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>207</v>
@@ -4283,19 +4283,19 @@
         <v>216298</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188208</v>
+        <v>193617</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240083</v>
+        <v>246536</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2106390575256048</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1832841962573031</v>
+        <v>0.188551470116963</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.23380201608937</v>
+        <v>0.2400859162336727</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>527</v>
@@ -4304,19 +4304,19 @@
         <v>564419</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>520986</v>
+        <v>524312</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>608349</v>
+        <v>608186</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2321552132927825</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2142902127087856</v>
+        <v>0.2156582493256609</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2502240950755107</v>
+        <v>0.2501572597420076</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1056230</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1023679</v>
+        <v>1022492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1088743</v>
+        <v>1087477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7521121422401124</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7289335128451373</v>
+        <v>0.7280882552678638</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7752633487059954</v>
+        <v>0.7743620346360968</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>796</v>
@@ -4354,19 +4354,19 @@
         <v>810566</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>786781</v>
+        <v>780328</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>838656</v>
+        <v>833247</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7893609424743951</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7661979839106303</v>
+        <v>0.7599140837663272</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8167158037426971</v>
+        <v>0.811448529883037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1782</v>
@@ -4375,19 +4375,19 @@
         <v>1866797</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1822867</v>
+        <v>1823030</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1910230</v>
+        <v>1906904</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7678447867072175</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7497759049244893</v>
+        <v>0.7498427402579927</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7857097872912145</v>
+        <v>0.7843417506743391</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>75044</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58000</v>
+        <v>58983</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93453</v>
+        <v>93670</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2057013878707984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1589835291370483</v>
+        <v>0.1616768486063584</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2561623251783778</v>
+        <v>0.2567570466945182</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -4740,19 +4740,19 @@
         <v>59821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49761</v>
+        <v>48495</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72861</v>
+        <v>72573</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.216115700107486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1797708118908361</v>
+        <v>0.1751978354950151</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2632261882321773</v>
+        <v>0.262183140998029</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>158</v>
@@ -4761,19 +4761,19 @@
         <v>134865</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114457</v>
+        <v>115089</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>156863</v>
+        <v>157125</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2101942293024012</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1783882464561769</v>
+        <v>0.1793725142448672</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2444801496348218</v>
+        <v>0.244888362177401</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>289774</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>271365</v>
+        <v>271148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>306818</v>
+        <v>305835</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7942986121292016</v>
+        <v>0.7942986121292014</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7438376748216231</v>
+        <v>0.743242953305482</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8410164708629519</v>
+        <v>0.8383231513936417</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>316</v>
@@ -4811,19 +4811,19 @@
         <v>216980</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>203940</v>
+        <v>204228</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>227040</v>
+        <v>228306</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7838842998925141</v>
+        <v>0.783884299892514</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7367738117678229</v>
+        <v>0.7378168590019714</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.820229188109164</v>
+        <v>0.8248021645049848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>583</v>
@@ -4832,19 +4832,19 @@
         <v>506754</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>484756</v>
+        <v>484494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>527162</v>
+        <v>526530</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7898057706975988</v>
+        <v>0.7898057706975987</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7555198503651781</v>
+        <v>0.7551116378225993</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8216117535438231</v>
+        <v>0.8206274857551328</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>132274</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109191</v>
+        <v>109654</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>157848</v>
+        <v>156026</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.214537485298149</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1770977341134473</v>
+        <v>0.1778497069418019</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2560163801478559</v>
+        <v>0.2530604590369478</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -4957,19 +4957,19 @@
         <v>106026</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91082</v>
+        <v>90767</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121729</v>
+        <v>121904</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2438047664229383</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2094419447244277</v>
+        <v>0.2087171460840277</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.279912606709769</v>
+        <v>0.2803152594654056</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>253</v>
@@ -4978,19 +4978,19 @@
         <v>238300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>211596</v>
+        <v>212944</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>266122</v>
+        <v>268486</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.226642611096258</v>
+        <v>0.2266426110962579</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2012446040361279</v>
+        <v>0.2025263010232043</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2531026987222152</v>
+        <v>0.255351079895847</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>484282</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458708</v>
+        <v>460530</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>507365</v>
+        <v>506902</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.785462514701851</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7439836198521441</v>
+        <v>0.7469395409630525</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8229022658865527</v>
+        <v>0.8221502930581983</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>433</v>
@@ -5028,19 +5028,19 @@
         <v>328855</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313152</v>
+        <v>312977</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>343799</v>
+        <v>344114</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7561952335770618</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7200873932902309</v>
+        <v>0.7196847405345943</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7905580552755721</v>
+        <v>0.7912828539159722</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>840</v>
@@ -5049,19 +5049,19 @@
         <v>813137</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>785315</v>
+        <v>782951</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>839841</v>
+        <v>838493</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7733573889037422</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.746897301277785</v>
+        <v>0.7446489201041531</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7987553959638722</v>
+        <v>0.7974736989767957</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>67290</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51259</v>
+        <v>53507</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85003</v>
+        <v>86798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1699961455919936</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1294966683897227</v>
+        <v>0.1351763832066429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2147448673200285</v>
+        <v>0.2192792144913643</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -5174,19 +5174,19 @@
         <v>70712</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57463</v>
+        <v>59048</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85915</v>
+        <v>86118</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2184580883482499</v>
+        <v>0.2184580883482498</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1775266457907259</v>
+        <v>0.1824215044799719</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2654258714073467</v>
+        <v>0.2660504460116934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -5195,19 +5195,19 @@
         <v>138002</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117622</v>
+        <v>118412</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>165504</v>
+        <v>159870</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1917976098629523</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1634722667933896</v>
+        <v>0.1645706654650724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.230019593427511</v>
+        <v>0.2221888961130194</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>328542</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310829</v>
+        <v>309034</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>344573</v>
+        <v>342325</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8300038544080064</v>
+        <v>0.8300038544080065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7852551326799714</v>
+        <v>0.7807207855086357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8705033316102774</v>
+        <v>0.864823616793357</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>317</v>
@@ -5245,19 +5245,19 @@
         <v>252977</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>237774</v>
+        <v>237571</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>266226</v>
+        <v>264641</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7815419116517504</v>
+        <v>0.7815419116517501</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7345741285926533</v>
+        <v>0.7339495539883066</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.822473354209274</v>
+        <v>0.8175784955200281</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>573</v>
@@ -5266,19 +5266,19 @@
         <v>581519</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>554017</v>
+        <v>559651</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>601899</v>
+        <v>601109</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8082023901370474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7699804065724889</v>
+        <v>0.7778111038869805</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8365277332066103</v>
+        <v>0.8354293345349272</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>106734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88292</v>
+        <v>90005</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127177</v>
+        <v>129013</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2099075624205641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1736392965242668</v>
+        <v>0.1770071549538162</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2501125511545963</v>
+        <v>0.2537221143664961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -5391,19 +5391,19 @@
         <v>105775</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90870</v>
+        <v>91987</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121716</v>
+        <v>123802</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2408026858461044</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2068693549088987</v>
+        <v>0.2094121437285091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.277093318420537</v>
+        <v>0.2818407964712952</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>246</v>
@@ -5412,19 +5412,19 @@
         <v>212509</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190780</v>
+        <v>189121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>238865</v>
+        <v>238863</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2242269001822011</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2012997272110274</v>
+        <v>0.1995499119740104</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2520360218898751</v>
+        <v>0.2520338572061872</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>401746</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>381303</v>
+        <v>379467</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>420188</v>
+        <v>418475</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7900924375794359</v>
+        <v>0.7900924375794358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7498874488454036</v>
+        <v>0.7462778856335037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8263607034757332</v>
+        <v>0.8229928450461838</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>442</v>
@@ -5462,19 +5462,19 @@
         <v>333486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>317545</v>
+        <v>315459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>348391</v>
+        <v>347274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7591973141538957</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7229066815794641</v>
+        <v>0.7181592035287049</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7931306450911015</v>
+        <v>0.7905878562714908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>809</v>
@@ -5483,19 +5483,19 @@
         <v>735231</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>708875</v>
+        <v>708877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>756960</v>
+        <v>758619</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7757730998177986</v>
+        <v>0.7757730998177989</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7479639781101249</v>
+        <v>0.747966142793813</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7987002727889725</v>
+        <v>0.8004500880259896</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>381341</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>340979</v>
+        <v>343351</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>417833</v>
+        <v>416617</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2022296747021927</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1808250150466162</v>
+        <v>0.1820829065135046</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2215816824503264</v>
+        <v>0.2209367630225918</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>468</v>
@@ -5608,19 +5608,19 @@
         <v>342335</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>310991</v>
+        <v>312328</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>370459</v>
+        <v>370169</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2321493092564317</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2108939069838283</v>
+        <v>0.2118009173695616</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.25122116085745</v>
+        <v>0.2510245173414424</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>801</v>
@@ -5629,19 +5629,19 @@
         <v>723676</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>679652</v>
+        <v>673755</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>772347</v>
+        <v>771416</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2153595191893946</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.202258302193462</v>
+        <v>0.2005034921627875</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2298435735211385</v>
+        <v>0.2295663546316475</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1504344</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1467852</v>
+        <v>1469068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1544706</v>
+        <v>1542334</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7977703252978072</v>
+        <v>0.7977703252978073</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7784183175496736</v>
+        <v>0.7790632369774083</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8191749849533839</v>
+        <v>0.8179170934864953</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1508</v>
@@ -5679,19 +5679,19 @@
         <v>1132297</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1104173</v>
+        <v>1104463</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1163641</v>
+        <v>1162304</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7678506907435685</v>
+        <v>0.7678506907435682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7487788391425497</v>
+        <v>0.7489754826585577</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7891060930161716</v>
+        <v>0.7881990826304385</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2805</v>
@@ -5700,19 +5700,19 @@
         <v>2636641</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2587970</v>
+        <v>2588901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2680665</v>
+        <v>2686562</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7846404808106056</v>
+        <v>0.7846404808106053</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7701564264788616</v>
+        <v>0.7704336453683525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7977416978065381</v>
+        <v>0.7994965078372124</v>
       </c>
     </row>
     <row r="18">
